--- a/biology/Zoologie/Anodonte_des_rivières/Anodonte_des_rivières.xlsx
+++ b/biology/Zoologie/Anodonte_des_rivières/Anodonte_des_rivières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anodonte_des_rivi%C3%A8res</t>
+          <t>Anodonte_des_rivières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Anodonte des rivières (Anodonta anatina) est une espèce de moules d'eau douce, un mollusque bivalve aquatique de la famille des Unionidés.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anodonte_des_rivi%C3%A8res</t>
+          <t>Anodonte_des_rivières</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Description et habitats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir Animalbase ci-dessous (lien externe).
-Comme A. cygnea, sa coquille est jaunâtre à verdâtre, mince et peu solide[1].
-En Normandie, cette espèce se trouve dans les eaux stagnantes ou à faible courant. L'espèce a divers poissons-hôtes comme la perche, le gardon, le chevesne, etc[1].
+Comme A. cygnea, sa coquille est jaunâtre à verdâtre, mince et peu solide.
+En Normandie, cette espèce se trouve dans les eaux stagnantes ou à faible courant. L'espèce a divers poissons-hôtes comme la perche, le gardon, le chevesne, etc.
 Valve droite et gauche du même spécimen:
 			Valve droite
 			Valve gauche
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anodonte_des_rivi%C3%A8res</t>
+          <t>Anodonte_des_rivières</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,25 +561,27 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'aire de répartition naturelle de cette espèce est paléarctique.
 Croatie
-République tchèque - en Bohême et en Moravie[2], préoccupation mineure (LC)[3]
+République tchèque - en Bohême et en Moravie, préoccupation mineure (LC)
 Allemagne
-Allemagne (Catégories der Vorwarnliste)[4]
+Allemagne (Catégories der Vorwarnliste)
 Répertoriée comme espèces  spécialement protégées dans l'annexe 1 de la Bundesartenschutzverordnung.
 Belgique
 Grande-Bretagne
 Ile de Man - trouvée à Lhen mouth (1922–25) et à Guilcagh (1985)
-Irlande - rencontrée de façon sporadique tout au long du canal navigable Shannon-Erne et dans le Lough Neagh[5]
-Pays-Bas[6]
+Irlande - rencontrée de façon sporadique tout au long du canal navigable Shannon-Erne et dans le Lough Neagh
+Pays-Bas
 Russie - Oblast de Sverdlovsk
 Slovaquie
-Suède - c'est le grand bivalve d'eau douce à l'aire de répartition la plus large en Suède[7]
-Espagne[8]
-Finlande[9]
-France - espèce présente dans de nombreux départements[10].</t>
+Suède - c'est le grand bivalve d'eau douce à l'aire de répartition la plus large en Suède
+Espagne
+Finlande
+France - espèce présente dans de nombreux départements.</t>
         </is>
       </c>
     </row>
